--- a/Excel/TI/Mon_TI_2024_11_09.xlsx
+++ b/Excel/TI/Mon_TI_2024_11_09.xlsx
@@ -776,18 +776,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -796,43 +796,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>33.4</v>
+        <v>30.4</v>
       </c>
       <c r="G3" t="n">
-        <v>35.4</v>
+        <v>36.2</v>
       </c>
       <c r="H3" t="n">
-        <v>35.4</v>
+        <v>36.2</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
+        <v>52</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
-        <v>36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13</v>
-      </c>
       <c r="R3" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -881,37 +881,37 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>-1.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.4</v>
+        <v>-37.1</v>
       </c>
       <c r="AL3" t="n">
         <v>2</v>
@@ -932,18 +932,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -952,43 +952,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="G4" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="H4" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>-8</v>
+        <v>41</v>
       </c>
       <c r="P4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -997,77 +997,77 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>-35.9</v>
+        <v>2</v>
       </c>
       <c r="AL4" t="n">
         <v>2</v>
@@ -1088,18 +1088,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1108,43 +1108,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>28.8</v>
       </c>
       <c r="G5" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
       <c r="N5" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
       </c>
       <c r="R5" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1153,77 +1153,77 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.9</v>
+        <v>-8.1</v>
       </c>
       <c r="AL5" t="n">
         <v>2</v>
@@ -1244,18 +1244,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1264,44 +1264,44 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28.2</v>
+        <v>34.4</v>
       </c>
       <c r="G6" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="H6" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" t="n">
+        <v>27</v>
+      </c>
+      <c r="O6" t="n">
+        <v>46</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>50</v>
+      </c>
+      <c r="R6" t="n">
         <v>25</v>
       </c>
-      <c r="O6" t="n">
-        <v>26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>29</v>
-      </c>
-      <c r="R6" t="n">
-        <v>36</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1349,37 +1349,37 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="AK6" t="n">
-        <v>-7.4</v>
+        <v>11.1</v>
       </c>
       <c r="AL6" t="n">
         <v>2</v>
@@ -1400,12 +1400,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30.4</v>
+        <v>23.4</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="I7" t="n">
         <v>9</v>
@@ -1435,37 +1435,37 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R7" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1505,49 +1505,49 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-7.8</v>
+        <v>5.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>-17.2</v>
       </c>
       <c r="AL7" t="n">
         <v>2</v>
@@ -1556,83 +1556,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>21.6</v>
+        <v>29.4</v>
       </c>
       <c r="G8" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="H8" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="n">
         <v>22</v>
       </c>
       <c r="R8" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>44</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1656,12 +1650,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1671,17 +1665,17 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1691,80 +1685,80 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>-16.8</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>2</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F9" t="n">
-        <v>29.4</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="H9" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P9" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="R9" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1773,16 +1767,18 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>44</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1806,22 +1802,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1831,17 +1827,17 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1850,10 +1846,14 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+        <v>-8.1</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2032,19 +2032,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25.2</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -2056,21 +2056,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
+        <v>16</v>
+      </c>
+      <c r="O11" t="n">
         <v>24</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>8</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>27</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>40</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-8.4</v>
+        <v>-6.8</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AL11" t="n">
         <v>1</v>
